--- a/doc/LeetCodeTop.xlsx
+++ b/doc/LeetCodeTop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LeetCode\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3D4E67-AAD2-44DE-A3F2-A838C304773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB97D30F-EC6C-494A-9254-E0A4A674D56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="248">
   <si>
     <t>206. 反转链表</t>
   </si>
@@ -231,19 +231,10 @@
     <t>543. 二叉树的直径</t>
   </si>
   <si>
-    <t>82. 删除排序链表中的重复元素 II</t>
-  </si>
-  <si>
     <t>394. 字符串解码</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/decode-string</t>
-  </si>
-  <si>
     <t>200. 岛屿数量</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/number-of-islands</t>
   </si>
   <si>
     <t>165. 比较版本号</t>
@@ -863,6 +854,43 @@
   </si>
   <si>
     <t>类别2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">82. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除排序链表中的重复元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> II</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-islands</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -907,12 +935,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -928,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -947,6 +981,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1229,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1245,19 +1282,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1271,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1285,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1299,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1390,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1415,7 +1452,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1429,7 +1466,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1443,7 +1480,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1457,7 +1494,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1471,7 +1508,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1496,7 +1533,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1521,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1603,7 +1640,7 @@
     </row>
     <row r="30" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B30" s="3">
         <v>7</v>
@@ -1612,7 +1649,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1637,7 +1674,7 @@
         <v>60</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1651,7 +1688,7 @@
         <v>62</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1665,7 +1702,7 @@
         <v>64</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1679,7 +1716,7 @@
         <v>66</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1690,949 +1727,960 @@
         <v>6</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B37" s="3">
         <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B38" s="3">
         <v>6</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="B40" s="3">
         <v>6</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="3">
-        <v>5</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>71</v>
+      <c r="A42" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B42" s="3">
         <v>5</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>72</v>
+      <c r="C42" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B43" s="3">
         <v>5</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>74</v>
+      <c r="C43" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3">
         <v>5</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B45" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B48" s="3">
         <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B49" s="3">
         <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B50" s="3">
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="B53" s="3">
         <v>4</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B54" s="3">
         <v>4</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B55" s="3">
         <v>4</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B56" s="3">
         <v>4</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B57" s="3">
         <v>4</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B58" s="3">
         <v>4</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B59" s="3">
         <v>4</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B61" s="3">
         <v>4</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B62" s="3">
         <v>4</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B63" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B64" s="3">
         <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B65" s="3">
         <v>3</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B66" s="3">
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B69" s="3">
         <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B71" s="3">
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B72" s="3">
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B73" s="3">
         <v>3</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B74" s="3">
         <v>3</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B75" s="3">
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B76" s="3">
         <v>3</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B78" s="3">
         <v>3</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B79" s="3">
         <v>3</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B80" s="3">
         <v>3</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B81" s="3">
         <v>3</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B82" s="3">
         <v>3</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B83" s="3">
         <v>3</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B84" s="3">
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B85" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B87" s="3">
         <v>2</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B88" s="3">
         <v>2</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B89" s="3">
         <v>2</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B90" s="3">
         <v>2</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B91" s="3">
         <v>2</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B92" s="3">
         <v>2</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B93" s="3">
         <v>2</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B94" s="3">
         <v>2</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B95" s="3">
         <v>2</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B98" s="3">
         <v>2</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B99" s="3">
         <v>2</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B100" s="3">
         <v>2</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B101" s="3">
         <v>2</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B102" s="3">
         <v>2</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B103" s="3">
         <v>2</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B111" s="3">
         <v>2</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B112" s="3">
         <v>2</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B113" s="3">
         <v>2</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B114" s="3">
         <v>2</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B115" s="3">
         <v>2</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B117" s="3">
         <v>2</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B118" s="3">
         <v>2</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B119" s="3">
         <v>2</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B120" s="3">
         <v>2</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
     <row r="122" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2697,6 +2745,7 @@
     <row r="183" ht="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="184" ht="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="185" ht="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2705,8 +2754,10 @@
     <hyperlink ref="C38" r:id="rId3" xr:uid="{ABBD0EDF-68CA-410A-901B-6AEE8DC7F658}"/>
     <hyperlink ref="C39" r:id="rId4" xr:uid="{061D2E88-7AFA-4F0C-BA97-141C36E4B2CF}"/>
     <hyperlink ref="C40" r:id="rId5" xr:uid="{073CE078-F3F7-429F-883A-D0CB7AAE1BA5}"/>
+    <hyperlink ref="C42" r:id="rId6" xr:uid="{817A9638-DF14-4978-9655-48B5E0FD0685}"/>
+    <hyperlink ref="C43" r:id="rId7" xr:uid="{47AFDBDE-C1B4-469B-83ED-9DA7195B1158}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/doc/LeetCodeTop.xlsx
+++ b/doc/LeetCodeTop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LeetCode\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB97D30F-EC6C-494A-9254-E0A4A674D56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99B14B-581F-4957-9E5F-BEFCDAD7A0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="254">
   <si>
     <t>206. 反转链表</t>
   </si>
@@ -48,9 +48,6 @@
     <t>215. 数组中的第K个最大元素</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/kth-largest-element-in-an-array</t>
-  </si>
-  <si>
     <t>53. 最大子序和</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>3. 无重复字符的最长子串</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters</t>
-  </si>
-  <si>
     <t>121. 买卖股票的最佳时机</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>41. 缺失的第一个正数</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/first-missing-positive</t>
-  </si>
-  <si>
     <t>199. 二叉树的右视图</t>
   </si>
   <si>
@@ -153,18 +144,9 @@
     <t>https://leetcode-cn.com/problems/symmetric-tree</t>
   </si>
   <si>
-    <t>415. 字符串相加</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/add-strings</t>
-  </si>
-  <si>
     <t>232. 用栈实现队列</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/implement-queue-using-stacks</t>
-  </si>
-  <si>
     <t>112. 路径总和</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t>剑指 Offer 09. 用两个栈实现队列</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof</t>
-  </si>
-  <si>
     <t>56. 合并区间</t>
   </si>
   <si>
@@ -237,46 +216,7 @@
     <t>200. 岛屿数量</t>
   </si>
   <si>
-    <t>165. 比较版本号</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/compare-version-numbers</t>
-  </si>
-  <si>
     <t>补充题9. 36进制加法</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/XcKQwnwCh5nZsz-DLHJwzQ</t>
-  </si>
-  <si>
-    <t>344. 反转字符串</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/reverse-string</t>
-  </si>
-  <si>
-    <t>88. 合并两个有序数组</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/merge-sorted-array</t>
-  </si>
-  <si>
-    <t>136. 只出现一次的数字</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/single-number</t>
-  </si>
-  <si>
-    <t>226. 翻转二叉树</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/invert-binary-tree</t>
-  </si>
-  <si>
-    <t>剑指 Offer 36. 二叉搜索树与双向链表</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/er-cha-sou-suo-shu-yu-shuang-xiang-lian-biao-lcof</t>
   </si>
   <si>
     <t>240. 搜索二维矩阵 II</t>
@@ -893,12 +833,216 @@
     <t>https://leetcode-cn.com/problems/number-of-islands</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>岛屿问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/compare-version-numbers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">165. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比较版本号</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/XcKQwnwCh5nZsz-DLHJwzQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">415. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串相加</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-strings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/kth-largest-element-in-an-array</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/first-missing-positive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-queue-using-stacks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-sorted-array</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">88. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合并两个有序数组</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">344. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反转字符串</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/invert-binary-tree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">136. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只出现一次的数字</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">226. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻转二叉树</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/er-cha-sou-suo-shu-yu-shuang-xiang-lian-biao-lcof</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剑指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Offer 36. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二叉搜索树与双向链表</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,8 +1078,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,6 +1096,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -983,6 +1140,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,38 +1438,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.08203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="74.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="4"/>
+    <col min="4" max="4" width="8.6640625" style="8"/>
+    <col min="5" max="5" width="8.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,11 +1485,11 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1321,11 +1499,12 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1335,1350 +1514,1430 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3">
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3">
         <v>8</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3">
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3">
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="B23" s="3">
         <v>8</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3">
         <v>7</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3">
         <v>7</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3">
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3">
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3">
         <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B30" s="3">
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3">
         <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3">
         <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3">
         <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3">
         <v>6</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B35" s="3">
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3">
         <v>6</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B37" s="3">
         <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B38" s="3">
         <v>6</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B40" s="3">
         <v>6</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="10" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B43" s="3">
         <v>5</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="B44" s="3">
         <v>5</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B45" s="3">
         <v>5</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="B48" s="3">
         <v>4</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="B49" s="3">
         <v>4</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>82</v>
+      <c r="C49" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="B50" s="3">
         <v>4</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B53" s="3">
         <v>4</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B54" s="3">
         <v>4</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3">
         <v>4</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B56" s="3">
         <v>4</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B57" s="3">
         <v>4</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B58" s="3">
         <v>4</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B59" s="3">
         <v>4</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B61" s="3">
         <v>4</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B62" s="3">
         <v>4</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B63" s="3">
         <v>4</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B64" s="3">
         <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B65" s="3">
         <v>3</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B66" s="3">
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B69" s="3">
         <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B71" s="3">
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B72" s="3">
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B73" s="3">
         <v>3</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B74" s="3">
         <v>3</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B75" s="3">
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B76" s="3">
         <v>3</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B78" s="3">
         <v>3</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B79" s="3">
         <v>3</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B80" s="3">
         <v>3</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B81" s="3">
         <v>3</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B82" s="3">
         <v>3</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B83" s="3">
         <v>3</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B84" s="3">
         <v>3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B85" s="3">
         <v>3</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B87" s="3">
         <v>2</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B88" s="3">
         <v>2</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B89" s="3">
         <v>2</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B90" s="3">
         <v>2</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B91" s="3">
         <v>2</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B92" s="3">
         <v>2</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B93" s="3">
         <v>2</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B94" s="3">
         <v>2</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B95" s="3">
         <v>2</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B98" s="3">
         <v>2</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B99" s="3">
         <v>2</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B100" s="3">
         <v>2</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B101" s="3">
         <v>2</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B102" s="3">
         <v>2</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B103" s="3">
         <v>2</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B111" s="3">
         <v>2</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B112" s="3">
         <v>2</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B113" s="3">
         <v>2</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B114" s="3">
         <v>2</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B115" s="3">
         <v>2</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B117" s="3">
         <v>2</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B118" s="3">
         <v>2</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B119" s="3">
         <v>2</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B120" s="3">
         <v>2</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B121" s="3">
         <v>2</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2756,8 +3015,21 @@
     <hyperlink ref="C40" r:id="rId5" xr:uid="{073CE078-F3F7-429F-883A-D0CB7AAE1BA5}"/>
     <hyperlink ref="C42" r:id="rId6" xr:uid="{817A9638-DF14-4978-9655-48B5E0FD0685}"/>
     <hyperlink ref="C43" r:id="rId7" xr:uid="{47AFDBDE-C1B4-469B-83ED-9DA7195B1158}"/>
+    <hyperlink ref="C44" r:id="rId8" xr:uid="{91905A8B-5354-46F4-B80A-D9F9587569D4}"/>
+    <hyperlink ref="C45" r:id="rId9" xr:uid="{8B9BDF7E-07A5-4D90-9C9F-84C7493523ED}"/>
+    <hyperlink ref="C46" r:id="rId10" xr:uid="{FDB31153-DA44-481E-AD20-8B0EADA359CC}"/>
+    <hyperlink ref="C23" r:id="rId11" xr:uid="{EF918FE4-ECAA-425A-8103-630CAE13767A}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{3C0CB308-5317-47AC-863D-144BEC8A2023}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{96BD5BB4-2439-4CCF-B603-A16FEFA77C0D}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{315AB5C0-8566-4907-B8DC-AF9E56228DCF}"/>
+    <hyperlink ref="C24" r:id="rId15" xr:uid="{88E17D62-E284-4893-868D-7B6CC0B3CF9A}"/>
+    <hyperlink ref="C26" r:id="rId16" xr:uid="{A04A708A-3123-46CC-AEF6-FD5D25B7E793}"/>
+    <hyperlink ref="C47" r:id="rId17" xr:uid="{2A7D029F-D045-4763-925D-856E241A9220}"/>
+    <hyperlink ref="C49" r:id="rId18" xr:uid="{10DE8A4D-AEB2-41A7-8097-18C4193D1447}"/>
+    <hyperlink ref="C48" r:id="rId19" xr:uid="{D8AE4CB8-A3B0-4FB6-B11F-977DD71FFBF7}"/>
+    <hyperlink ref="C50" r:id="rId20" xr:uid="{D6235819-AF99-4C84-BA63-425FDC2D6B89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>